--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\IMS\Production_Accounting\scripts\PA_app_auto\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98EE31E-2CD1-41CE-B933-E18257749350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326CCFE5-B238-49D2-A2E6-8E1B34B09136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12185EE5-9FB2-4F56-AB5F-8D128EDC000E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{12185EE5-9FB2-4F56-AB5F-8D128EDC000E}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
+    <sheet name="Web.Config" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +38,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Computer Name</t>
   </si>
   <si>
     <t>Service Account</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>Database Name</t>
+  </si>
+  <si>
+    <t>Integrated Security</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>JKMA</t>
   </si>
 </sst>
 </file>
@@ -393,25 +419,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE49488-F468-4CB5-AACB-344D36097796}">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5AA713-E9B6-4945-9337-F276F56B0268}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206AAAAD-1303-4AAF-9610-B9A24CD91BBE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>